--- a/internal/test/excels/struct_define.xlsx
+++ b/internal/test/excels/struct_define.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30240" windowHeight="12980"/>
+    <workbookView windowWidth="30240" windowHeight="13240"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
     <t>Tag</t>
   </si>
@@ -44,6 +44,9 @@
     <t>描述</t>
   </si>
   <si>
+    <t># 道具数量</t>
+  </si>
+  <si>
     <t>c/s</t>
   </si>
   <si>
@@ -57,6 +60,9 @@
   </si>
   <si>
     <t>道具数量</t>
+  </si>
+  <si>
+    <t># 任务奖励</t>
   </si>
   <si>
     <t>taskReward</t>
@@ -1219,13 +1225,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="4" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="5.07692307692308" customWidth="1"/>
     <col min="2" max="4" width="62.1538461538462" customWidth="1"/>
@@ -1249,38 +1255,56 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" ht="17" spans="1:5">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:5">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" ht="17" spans="1:5">
+      <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="D3" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="E3" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="1" t="s">
+    <row r="4" ht="17" spans="1:5">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>13</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
